--- a/sc/qa/unit/data/xlsx/pivot-table/PivotTableCellFormatsTest_8_DataFieldInRow_DataColor.xlsx
+++ b/sc/qa/unit/data/xlsx/pivot-table/PivotTableCellFormatsTest_8_DataFieldInRow_DataColor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\quikee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA9C7B3-780F-4A91-9BC1-6E98ADBFA0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C6209-B58E-4305-B8F1-836A6BBA97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="16224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -179,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,28 +201,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -255,6 +243,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB54612F-9A9D-D372-403C-45846508E4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3611880" y="1463040"/>
+          <a:ext cx="3238500" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,7 +373,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" createdVersion="8" indent="0" compact="0" outline="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" createdVersion="8" indent="0" compact="0" outline="1" compactData="0">
   <location ref="G4:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0">
@@ -665,7 +719,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -778,37 +832,38 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>2</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>6</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>